--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="03月" sheetId="1" r:id="rId1"/>
@@ -788,9 +788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1440,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1690,10 +1690,19 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="F10" s="5">
         <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="03月" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="115">
   <si>
     <t>项目编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -406,19 +406,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>贵州国寿毕节分公司重疾绿通增订项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2046017B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆国寿重疾绿通快捷垫付项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>服务对接，开发接口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>贵州国寿毕节分公司重疾绿通增订项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS2046017B017</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆国寿重疾绿通快捷垫付项目</t>
+    <t>HLS2047018B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德阳住院垫付卡项目</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -788,9 +796,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1438,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1764,7 +1772,7 @@
         <v>104</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
@@ -1791,7 +1799,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
         <v>106</v>
@@ -1815,10 +1823,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>107</v>
@@ -1838,6 +1846,31 @@
         <v>0.5</v>
       </c>
       <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17" si="2">F17+G17+H17+I17</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="124">
   <si>
     <t>项目编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -390,10 +390,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>大势</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>HLS19493B017</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -427,6 +423,46 @@
   </si>
   <si>
     <t>德阳住院垫付卡项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S15A12BX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰人寿保险股份有限公司采购协议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林小雁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发清单H5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S12801X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盟系列服务卡（针对公司零售业务）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张红</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈洪霞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS203001Q017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大势健康医疗项目</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1446,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1605,13 +1641,13 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" ref="E6:E15" si="0">F6+G6+H6+I6</f>
+        <v>4</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
         <v>3</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1698,13 +1734,13 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F10" s="5">
         <v>2</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1728,13 +1764,16 @@
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
       </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1772,40 +1811,52 @@
         <v>104</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F13" s="5">
         <v>0.5</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>123</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
         <v>106</v>
-      </c>
-      <c r="C15" t="s">
-        <v>107</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>67</v>
@@ -1823,13 +1874,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>67</v>
@@ -1849,10 +1900,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>66</v>
@@ -1861,7 +1912,7 @@
         <v>67</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ref="E17" si="2">F17+G17+H17+I17</f>
+        <f t="shared" ref="E17:E19" si="2">F17+G17+H17+I17</f>
         <v>1</v>
       </c>
       <c r="F17" s="5">
@@ -1869,6 +1920,51 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H19">
         <v>0.5</v>
       </c>
     </row>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="03月" sheetId="1" r:id="rId1"/>
     <sheet name="04月" sheetId="2" r:id="rId2"/>
+    <sheet name="05月" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="125">
   <si>
     <t>项目编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -463,6 +464,10 @@
   </si>
   <si>
     <t>大势健康医疗项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接开发</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1484,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1973,4 +1978,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2">
+        <f>F2+G2+H2+I2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="129">
   <si>
     <t>项目编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -468,6 +468,22 @@
   </si>
   <si>
     <t>对接开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2040003B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿贵州省公司垫付卡项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林小雁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置珊瑚激活</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1982,10 +1998,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2040,8 +2056,33 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="2">
+        <f>F3+G3+H3+I3</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -11,7 +11,7 @@
     <sheet name="04月" sheetId="2" r:id="rId2"/>
     <sheet name="05月" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="167">
   <si>
     <t>项目编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -484,6 +484,158 @@
   </si>
   <si>
     <t>配置珊瑚激活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S15A12BX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰人寿保险股份有限公司采购协议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林小雁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据备案对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2048023B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡惠山国寿营销裂变项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时提取任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿兰州快捷垫付重疾绿通项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2051002B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程利军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置珊瑚激活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2051001B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿巴中无忧健康医生卡项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2048021B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>临沂国寿垫付项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS197005B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全科转诊导医服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王雪丽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S16208BX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰康健康管理公司合作项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李冉冉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据回传对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS19110B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘金芳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京国寿重疾卡增订项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2041002B063</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华健康2020 健康救援卡类服务项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李小慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面功能修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发个人中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HLS2046017B017 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆国寿重疾绿通快捷垫付项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程利军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置珊瑚激活，短信任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS19A006B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平人寿2020版线上医生增值服务</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1506,7 +1658,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1998,13 +2150,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2050,10 +2208,10 @@
       </c>
       <c r="E2">
         <f>F2+G2+H2+I2</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2078,6 +2236,297 @@
       </c>
       <c r="H3">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E5" si="0">F4+G4+H4+I4</f>
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ref="E6:E8" si="1">F6+G6+H6+I6</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" ref="E9" si="2">F9+G9+H9+I9</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" ref="E10:E11" si="3">F10+G10+H10+I10</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="F11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" ref="E12:E15" si="4">F12+G12+H12+I12</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="174">
   <si>
     <t>项目编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -636,6 +636,34 @@
   </si>
   <si>
     <t>太平人寿2020版线上医生增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2051007Q017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道康健康产品内部采购项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置珊瑚激活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2051011B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿合肥重疾绿通增订项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1007,7 +1035,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1658,7 +1686,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2150,10 +2178,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2445,7 +2473,7 @@
         <v>78</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ref="E12:E15" si="4">F12+G12+H12+I12</f>
+        <f t="shared" ref="E12:E16" si="4">F12+G12+H12+I12</f>
         <v>1</v>
       </c>
       <c r="F12" s="2">
@@ -2528,6 +2556,57 @@
       <c r="H15">
         <v>1</v>
       </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" t="str">
+        <f>D16:H16</f>
+        <v>配置珊瑚激活</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17" si="5">F17+G17+H17+I17</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="178">
   <si>
     <t>项目编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -664,6 +664,22 @@
   </si>
   <si>
     <t>梅成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2051002B063</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西橙健康-西橙客户服务项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 王婴孚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目对接</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2178,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2236,10 +2252,10 @@
       </c>
       <c r="E2">
         <f>F2+G2+H2+I2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2607,6 +2623,20 @@
         <v>0.5</v>
       </c>
       <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="03月" sheetId="1" r:id="rId1"/>
     <sheet name="04月" sheetId="2" r:id="rId2"/>
     <sheet name="05月" sheetId="3" r:id="rId3"/>
+    <sheet name="06月" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="205">
   <si>
     <t>项目编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -635,52 +636,160 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>HLS2051007Q017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道康健康产品内部采购项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置珊瑚激活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2051011B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿合肥重疾绿通增订项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2051002B063</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西橙健康-西橙客户服务项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 王婴孚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>太平人寿2020版线上医生增值服务</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HLS2051007Q017</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>道康健康产品内部采购项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘念</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>页面内容修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS19313B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川乐山国寿重疾绿通增订项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程利军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2051010B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿贵州黔东南电话医生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS19493B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州国寿毕节分公司重疾绿通增订项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2061001B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿武威快捷垫付重疾绿通项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程利军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>配置珊瑚激活</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS2051011B017</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>国寿合肥重疾绿通增订项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS2051002B063</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>西橙健康-西橙客户服务项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 王婴孚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目对接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S15903BX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国联人寿健康增值服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李冉冉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接、数据回传</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>华农健康管理增值服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2061003B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM19701Q031</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈阳德仁养老项目（医疗+救援）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈洪霞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿武威快捷垫付重疾绿通项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2061001B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程利军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -754,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -767,6 +876,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1702,7 +1814,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2194,10 +2306,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2252,10 +2364,16 @@
       </c>
       <c r="E2">
         <f>F2+G2+H2+I2</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2297,10 +2415,10 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E5" si="0">F4+G4+H4+I4</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,7 +2648,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s">
         <v>165</v>
@@ -2575,16 +2693,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" t="s">
         <v>168</v>
       </c>
-      <c r="B16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>169</v>
-      </c>
-      <c r="D16" t="s">
-        <v>170</v>
       </c>
       <c r="E16">
         <f t="shared" si="4"/>
@@ -2599,20 +2717,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
         <v>172</v>
       </c>
-      <c r="B17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" t="str">
-        <f>D16:H16</f>
-        <v>配置珊瑚激活</v>
+      <c r="D17" t="s">
+        <v>62</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ref="E17" si="5">F17+G17+H17+I17</f>
+        <f t="shared" ref="E17:E20" si="5">F17+G17+H17+I17</f>
         <v>1</v>
       </c>
       <c r="F17" s="2">
@@ -2626,16 +2743,121 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" t="s">
         <v>175</v>
       </c>
-      <c r="B18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>176</v>
       </c>
-      <c r="D18" t="s">
-        <v>177</v>
+      <c r="E18" s="2">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" ref="E21:E22" si="6">F21+G21+H21+I21</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2643,4 +2865,187 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="2">
+        <f>F2+G2+H2+I2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="2">
+        <f>F3+G3+H3+I3</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="2">
+        <f>F4+G4+H4+I4</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E6" si="0">F5+G5+H5+I5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="2">
+        <f>F7+G7+H7+I7</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="253">
   <si>
     <t>项目编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -789,6 +789,198 @@
   </si>
   <si>
     <t>程利军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2041002B063</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华健康2020 健康救援卡类服务项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营开发公众号需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李小慧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔美霞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求整理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵彤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发结束时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年西藏国寿重疾绿通卡增订项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2061006B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿广安重疾绿通及垫付项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS202008B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程利军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS19A006B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平人寿2020版线上医生增值服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面更新需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国益保医疗救援项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2061001Q031</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿成都重疾绿通及快捷垫付项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS202001B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程利军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普惠自营商城基因检测c端服务项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2061001G016</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖蓥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆健康救援项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM19A01B031</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金晓可</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前海财重疾绿通项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS203008B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接、FTP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待联调上线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安心广告落地页开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔美霞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地页开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优保科技-医疗服务项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS195002D017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵金辉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -796,6 +988,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -863,7 +1058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -877,6 +1072,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2869,10 +3079,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2881,14 +3091,16 @@
     <col min="2" max="2" width="16.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="5" max="5" width="19.25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="3" customWidth="1"/>
+    <col min="7" max="8" width="16.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2901,23 +3113,29 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
@@ -2930,15 +3148,27 @@
       <c r="D2" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="2">
-        <f>F2+G2+H2+I2</f>
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E2" s="8">
+        <v>43984</v>
+      </c>
+      <c r="F2" s="10">
+        <v>43991</v>
+      </c>
+      <c r="G2" s="2">
+        <f>H2+I2+J2+K2</f>
+        <v>4.5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>187</v>
       </c>
@@ -2951,18 +3181,24 @@
       <c r="D3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E3" s="2">
-        <f>F3+G3+H3+I3</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.5</v>
+      <c r="E3" s="9">
+        <v>43986</v>
+      </c>
+      <c r="F3" s="9">
+        <v>43986</v>
+      </c>
+      <c r="G3" s="2">
+        <f>H3+I3+J3+K3</f>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>191</v>
       </c>
@@ -2975,15 +3211,21 @@
       <c r="D4" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="2">
-        <f>F4+G4+H4+I4</f>
+      <c r="E4" s="9">
+        <v>43984</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="2">
+        <f>H4+I4+J4+K4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="H4" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>194</v>
       </c>
@@ -2996,12 +3238,15 @@
       <c r="D5" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" ref="E5:E6" si="0">F5+G5+H5+I5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5" s="2">
+        <f t="shared" ref="G5:G7" si="0">H5+I5+J5+K5</f>
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>199</v>
       </c>
@@ -3014,32 +3259,365 @@
       <c r="D6" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="9">
+        <v>43983</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="2">
-        <f>F7+G7+H7+I7</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="E8" s="9">
+        <v>43986</v>
+      </c>
+      <c r="F8" s="9">
+        <v>43986</v>
+      </c>
+      <c r="G8" s="2">
+        <f>H8+I8+J8+K8</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="9">
+        <v>43991</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" ref="G9:G15" si="1">H9+I9+J9+K9</f>
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="9">
+        <v>43990</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="9">
+        <v>43994</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="9">
+        <v>43991</v>
+      </c>
+      <c r="F12" s="9">
+        <v>43991</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="9">
+        <v>43991</v>
+      </c>
+      <c r="F13" s="9">
+        <v>43991</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="9">
+        <v>43994</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" s="9">
+        <v>43993</v>
+      </c>
+      <c r="F15" s="11">
+        <v>43994</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="9">
+        <v>43993</v>
+      </c>
+      <c r="F16" s="9">
+        <v>43993</v>
+      </c>
+      <c r="G16" s="2">
+        <f>H16+I16+J16+K16</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E17" s="9">
+        <v>43993</v>
+      </c>
+      <c r="F17" s="9">
+        <v>43994</v>
+      </c>
+      <c r="G17" s="2">
+        <f>H17+I17+J17+K17</f>
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="9">
+        <v>43993</v>
+      </c>
+      <c r="F18" s="9">
+        <v>43993</v>
+      </c>
+      <c r="G18" s="2">
+        <f>H18+I18+J18+K18</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="9">
+        <v>43994</v>
+      </c>
+      <c r="F19" s="9">
+        <v>43994</v>
+      </c>
+      <c r="G19" s="2">
+        <f>H19+I19+J19+K19</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="3">
         <v>0.5</v>
       </c>
     </row>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="260">
   <si>
     <t>项目编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -981,6 +981,34 @@
   </si>
   <si>
     <t>服务对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S16208BX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰康健康管理公司合作项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李冉冉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加密对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊瑚重疾服务页面更新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端页面修改</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3079,10 +3107,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3091,8 +3119,8 @@
     <col min="2" max="2" width="16.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="3" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="20.125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="3" bestFit="1" customWidth="1"/>
@@ -3238,6 +3266,9 @@
       <c r="D5" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="E5" s="9">
+        <v>43997</v>
+      </c>
       <c r="G5" s="2">
         <f t="shared" ref="G5:G7" si="0">H5+I5+J5+K5</f>
         <v>0.5</v>
@@ -3259,6 +3290,9 @@
       <c r="D6" s="3" t="s">
         <v>201</v>
       </c>
+      <c r="E6" s="9" t="s">
+        <v>253</v>
+      </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -3323,253 +3357,265 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="E9" s="9">
-        <v>43991</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>242</v>
+        <v>43990</v>
+      </c>
+      <c r="F9" s="9">
+        <v>43998</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" ref="G9:G15" si="1">H9+I9+J9+K9</f>
-        <v>3</v>
+        <f>H9+I9+J9+K9</f>
+        <v>1.5</v>
       </c>
       <c r="H9" s="3">
-        <v>3</v>
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="9">
+        <v>43991</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ref="G10:G17" si="1">H10+I10+J10+K10</f>
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>43990</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H11" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="9">
         <v>43994</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H12" s="3">
         <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="9">
-        <v>43991</v>
-      </c>
-      <c r="F12" s="9">
-        <v>43991</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="E13" s="9">
         <v>43991</v>
       </c>
-      <c r="F13" s="9">
-        <v>43991</v>
+      <c r="F13" s="11">
+        <v>43998</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H13" s="3">
         <v>0.5</v>
       </c>
-      <c r="J13" s="3">
-        <v>0.5</v>
+      <c r="I13" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="E14" s="9">
-        <v>43994</v>
+        <v>43991</v>
+      </c>
+      <c r="F14" s="9">
+        <v>43991</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="E15" s="9">
-        <v>43993</v>
-      </c>
-      <c r="F15" s="11">
-        <v>43994</v>
+        <v>43991</v>
+      </c>
+      <c r="F15" s="9">
+        <v>43991</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="E16" s="9">
-        <v>43993</v>
-      </c>
-      <c r="F16" s="9">
-        <v>43993</v>
+        <v>43994</v>
+      </c>
+      <c r="F16" s="11">
+        <v>43998</v>
       </c>
       <c r="G16" s="2">
-        <f>H16+I16+J16+K16</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J16" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E17" s="9">
         <v>43993</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="11">
         <v>43994</v>
       </c>
       <c r="G17" s="2">
-        <f>H17+I17+J17+K17</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>1.5</v>
       </c>
       <c r="H17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>189</v>
@@ -3593,31 +3639,91 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="E19" s="9">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="F19" s="9">
-        <v>43994</v>
+        <v>43998</v>
       </c>
       <c r="G19" s="2">
         <f>H19+I19+J19+K19</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H19" s="3">
         <v>0.5</v>
       </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
       <c r="J19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="9">
+        <v>43993</v>
+      </c>
+      <c r="F20" s="9">
+        <v>43993</v>
+      </c>
+      <c r="G20" s="2">
+        <f>H20+I20+J20+K20</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="9">
+        <v>43994</v>
+      </c>
+      <c r="F21" s="9">
+        <v>43994</v>
+      </c>
+      <c r="G21" s="2">
+        <f>H21+I21+J21+K21</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="3">
         <v>0.5</v>
       </c>
     </row>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="287">
   <si>
     <t>项目编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -748,11 +748,335 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>HLS2061003B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM19701Q031</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈阳德仁养老项目（医疗+救援）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈洪霞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿武威快捷垫付重疾绿通项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2061001B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程利军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2041002B063</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华健康2020 健康救援卡类服务项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营开发公众号需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李小慧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔美霞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求整理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵彤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年西藏国寿重疾绿通卡增订项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2061006B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿广安重疾绿通及垫付项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS202008B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程利军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS19A006B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平人寿2020版线上医生增值服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面更新需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国益保医疗救援项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2061001Q031</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿成都重疾绿通及快捷垫付项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS202001B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程利军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普惠自营商城基因检测c端服务项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2061001G016</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖蓥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆健康救援项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM19A01B031</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金晓可</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前海财重疾绿通项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS203008B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接、FTP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待联调上线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安心广告落地页开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔美霞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地页开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优保科技-医疗服务项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS195002D017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵金辉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S16208BX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰康健康管理公司合作项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李冉冉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加密对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊瑚重疾服务页面更新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端页面修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英大团险健康管理服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS19C016B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳志涛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通-信诺救援和健康项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2061002Q063</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘念</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>《远盟救援》小程序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>范文文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BJS2051005H019</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接（小程序）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰康健康管理公司合作项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李冉冉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据回传接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口交付</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口交付</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接结束时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>华农健康管理增值服务</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>HLS2061003B017</t>
+    <t>友邦2017版团险组合计划增值服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S16909BX</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -760,31 +1084,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>服务对接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM19701Q031</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈阳德仁养老项目（医疗+救援）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈洪霞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务对接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>国寿武威快捷垫付重疾绿通项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS2061001B017</t>
+    <t>配置珊瑚激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS19316B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州国寿黔东南分公司重疾绿通卡增订业务</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -792,119 +1100,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>HLS2041002B063</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新华健康2020 健康救援卡类服务项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营开发公众号需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李小慧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔美霞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务对接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求整理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵彤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发结束时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对接开始时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年西藏国寿重疾绿通卡增订项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS2061006B017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>俞红</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>国寿广安重疾绿通及垫付项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS202008B017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>程利军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪希慧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS19A006B017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>太平人寿2020版线上医生增值服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面更新需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>国益保医疗救援项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS2061001Q031</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务对接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>国寿成都重疾绿通及快捷垫付项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS202001B017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>程利军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>普惠自营商城基因检测c端服务项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS2061001G016</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖蓥</t>
+    <t>HLS2061015B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿重庆电销快捷垫付重疾绿通项目</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -917,98 +1117,6 @@
   </si>
   <si>
     <t>金晓可</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>前海财重疾绿通项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS203008B017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪希慧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务对接、FTP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂停</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂停</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待联调上线</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>安心广告落地页开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔美霞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>落地页开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>优保科技-医疗服务项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS195002D017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵金辉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务对接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂停</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S16208BX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰康健康管理公司合作项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李冉冉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据加密对接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>珊瑚重疾服务页面更新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端页面修改</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2547,7 +2655,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3107,15 +3215,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="3" bestFit="1" customWidth="1"/>
@@ -3142,10 +3251,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -3243,7 +3352,7 @@
         <v>43984</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G4" s="2">
         <f>H4+I4+J4+K4</f>
@@ -3255,16 +3364,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="E5" s="9">
         <v>43997</v>
@@ -3279,19 +3388,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
@@ -3303,37 +3412,40 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="E7" s="9">
         <v>43983</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>189</v>
@@ -3357,16 +3469,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E9" s="9">
         <v>43990</v>
@@ -3387,22 +3499,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E10" s="9">
         <v>43991</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>242</v>
+      <c r="F10" s="11">
+        <v>44001</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" ref="G10:G17" si="1">H10+I10+J10+K10</f>
@@ -3414,19 +3526,19 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E11" s="9">
         <v>43990</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
@@ -3438,37 +3550,37 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="E12" s="9">
         <v>43994</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>244</v>
+      <c r="F12" s="11">
+        <v>44001</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E13" s="9">
         <v>43991</v>
@@ -3489,13 +3601,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>189</v>
@@ -3519,13 +3631,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>189</v>
@@ -3549,16 +3661,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="E16" s="9">
         <v>43994</v>
@@ -3576,16 +3688,16 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E17" s="9">
         <v>43993</v>
@@ -3609,13 +3721,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>189</v>
@@ -3639,13 +3751,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E19" s="9">
         <v>43993</v>
@@ -3669,13 +3781,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>189</v>
@@ -3699,13 +3811,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>189</v>
@@ -3724,6 +3836,215 @@
         <v>0.5</v>
       </c>
       <c r="J21" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" s="9">
+        <v>43999</v>
+      </c>
+      <c r="F22" s="9">
+        <v>43999</v>
+      </c>
+      <c r="G22" s="2">
+        <f>H22+I22+J22+K22</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="9">
+        <v>43999</v>
+      </c>
+      <c r="F23" s="9">
+        <v>43999</v>
+      </c>
+      <c r="G23" s="2">
+        <f>H23+I23+J23+K23</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E24" s="9">
+        <v>44001</v>
+      </c>
+      <c r="F24" s="9">
+        <v>44001</v>
+      </c>
+      <c r="G24" s="2">
+        <f>H24+I24+J24+K24</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E25" s="9">
+        <v>44004</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E26" s="9">
+        <v>44004</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E27" s="9">
+        <v>44004</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E28" s="9">
+        <v>44004</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" s="9">
+        <v>44005</v>
+      </c>
+      <c r="F29" s="11">
+        <v>44005</v>
+      </c>
+      <c r="G29" s="2">
+        <f>H29+I29+J29+K29</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="3">
         <v>0.5</v>
       </c>
     </row>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="03月" sheetId="1" r:id="rId1"/>
     <sheet name="04月" sheetId="2" r:id="rId2"/>
     <sheet name="05月" sheetId="3" r:id="rId3"/>
     <sheet name="06月" sheetId="4" r:id="rId4"/>
+    <sheet name="07月" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="304">
   <si>
     <t>项目编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1052,18 +1053,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>暂停</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口交付</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口交付</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>对接结束时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1117,6 +1106,86 @@
   </si>
   <si>
     <t>金晓可</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2061005B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿贵州紫云快捷垫付重疾绿通项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS19110B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京国寿重疾卡增订项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS202028B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿西藏快捷垫付重疾绿通项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘金芳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程利军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接、API开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待产品上线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口交付、准备联调</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安心健康管家公众号开发需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>友邦2017版团险组合计划增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S16909BX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM18C05B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水滴保健康咨询增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接、集成页开发</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2655,7 +2724,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3215,11 +3284,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H31:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3229,7 +3298,7 @@
     <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="20.125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="3" bestFit="1" customWidth="1"/>
@@ -3254,7 +3323,7 @@
         <v>212</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -3356,15 +3425,18 @@
       </c>
       <c r="G4" s="2">
         <f>H4+I4+J4+K4</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H4" s="3">
         <v>2</v>
       </c>
+      <c r="I4" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>194</v>
@@ -3378,12 +3450,15 @@
       <c r="E5" s="9">
         <v>43997</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>294</v>
+      </c>
       <c r="G5" s="2">
         <f t="shared" ref="G5:G7" si="0">H5+I5+J5+K5</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3402,6 +3477,9 @@
       <c r="E6" s="9" t="s">
         <v>249</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>293</v>
+      </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -3739,7 +3817,7 @@
         <v>43993</v>
       </c>
       <c r="G18" s="2">
-        <f>H18+I18+J18+K18</f>
+        <f t="shared" ref="G18:G28" si="2">H18+I18+J18+K18</f>
         <v>1</v>
       </c>
       <c r="H18" s="3">
@@ -3766,7 +3844,7 @@
         <v>43998</v>
       </c>
       <c r="G19" s="2">
-        <f>H19+I19+J19+K19</f>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="H19" s="3">
@@ -3799,7 +3877,7 @@
         <v>43993</v>
       </c>
       <c r="G20" s="2">
-        <f>H20+I20+J20+K20</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H20" s="3">
@@ -3829,7 +3907,7 @@
         <v>43994</v>
       </c>
       <c r="G21" s="2">
-        <f>H21+I21+J21+K21</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H21" s="3">
@@ -3841,13 +3919,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>189</v>
@@ -3859,7 +3937,7 @@
         <v>43999</v>
       </c>
       <c r="G22" s="2">
-        <f>H22+I22+J22+K22</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H22" s="3">
@@ -3871,13 +3949,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>189</v>
@@ -3889,7 +3967,7 @@
         <v>43999</v>
       </c>
       <c r="G23" s="2">
-        <f>H23+I23+J23+K23</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H23" s="3">
@@ -3901,16 +3979,16 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E24" s="9">
         <v>44001</v>
@@ -3919,7 +3997,7 @@
         <v>44001</v>
       </c>
       <c r="G24" s="2">
-        <f>H24+I24+J24+K24</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H24" s="3">
@@ -3946,7 +4024,11 @@
         <v>44004</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>270</v>
+        <v>293</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="H25" s="3">
         <v>0.5</v>
@@ -3963,16 +4045,26 @@
         <v>261</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="E26" s="9">
         <v>44004</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>271</v>
+        <v>295</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -3992,7 +4084,11 @@
         <v>44004</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>272</v>
+        <v>295</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -4014,22 +4110,29 @@
       <c r="E28" s="9">
         <v>44004</v>
       </c>
+      <c r="F28" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="H28" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="E29" s="9">
         <v>44005</v>
@@ -4045,6 +4148,96 @@
         <v>0.5</v>
       </c>
       <c r="J29" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="9">
+        <v>43999</v>
+      </c>
+      <c r="F30" s="9">
+        <v>43999</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" ref="G30" si="3">H30+I30+J30+K30</f>
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="9">
+        <v>44011</v>
+      </c>
+      <c r="F31" s="9">
+        <v>44011</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" ref="G31:G32" si="4">H31+I31+J31+K31</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="9">
+        <v>44011</v>
+      </c>
+      <c r="F32" s="9">
+        <v>44011</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J32" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -4053,4 +4246,173 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="22.75" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="9">
+        <v>43990</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G4" si="0">H2+I2+J2+K2</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" s="9">
+        <v>43997</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="9">
+        <v>44004</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="9">
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" s="11">
+        <v>44018</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="319">
   <si>
     <t>项目编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1187,6 +1187,66 @@
   <si>
     <t>服务对接、集成页开发</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江国寿健康管理项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS204006B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈飞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>API开发、个性化配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安心公众号4个落地页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔美霞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安心公众号营养课落地页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖蓥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地页开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接、集成页开发、接口改造</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰人寿保险股份有限公司采购协议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S15A12BX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林小雁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据提取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增开发需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3286,9 +3346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H31:H32"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4250,16 +4310,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="22.75" style="3" customWidth="1"/>
+    <col min="2" max="3" width="22.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="22.75" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -4315,7 +4377,7 @@
         <v>239</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G4" si="0">H2+I2+J2+K2</f>
+        <f t="shared" ref="G2:G11" si="0">H2+I2+J2+K2</f>
         <v>2</v>
       </c>
       <c r="H2" s="3">
@@ -4343,10 +4405,10 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -4392,6 +4454,19 @@
       <c r="E5" s="9">
         <v>44015</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -4404,10 +4479,155 @@
         <v>299</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="E6" s="11">
         <v>44018</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="11">
+        <v>44015</v>
+      </c>
+      <c r="F7" s="11">
+        <v>44019</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" s="11">
+        <v>44020</v>
+      </c>
+      <c r="F8" s="11">
+        <v>44026</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" s="11">
+        <v>44020</v>
+      </c>
+      <c r="F9" s="11">
+        <v>44021</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" s="11">
+        <v>44025</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E11" s="11">
+        <v>44026</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="338">
   <si>
     <t>项目编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -933,319 +933,395 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>等待联调上线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安心广告落地页开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔美霞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地页开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优保科技-医疗服务项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS195002D017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵金辉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>暂停</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>等待联调上线</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>安心广告落地页开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>S16208BX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰康健康管理公司合作项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李冉冉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加密对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊瑚重疾服务页面更新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端页面修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英大团险健康管理服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS19C016B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳志涛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通-信诺救援和健康项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2061002Q063</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘念</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>《远盟救援》小程序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>范文文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BJS2051005H019</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接（小程序）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰康健康管理公司合作项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李冉冉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据回传接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接结束时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>华农健康管理增值服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>友邦2017版团险组合计划增值服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S16909BX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置珊瑚激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS19316B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州国寿黔东南分公司重疾绿通卡增订业务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程利军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2061015B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿重庆电销快捷垫付重疾绿通项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆健康救援项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM19A01B031</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金晓可</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2061005B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿贵州紫云快捷垫付重疾绿通项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS19110B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京国寿重疾卡增订项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS202028B017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿西藏快捷垫付重疾绿通项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘金芳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程利军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接、API开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待产品上线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口交付、准备联调</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安心健康管家公众号开发需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>友邦2017版团险组合计划增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S16909BX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM18C05B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水滴保健康咨询增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接、集成页开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江国寿健康管理项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS204006B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈飞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>API开发、个性化配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安心公众号4个落地页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>孔美霞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安心公众号营养课落地页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖蓥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>落地页开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>优保科技-医疗服务项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS195002D017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵金辉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接、集成页开发、接口改造</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰人寿保险股份有限公司采购协议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S15A12BX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林小雁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据提取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增开发需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Picc健康-Picc寿总公司传统服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM19104B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程利军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发医院清单页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾庆宇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安心落地页迁移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔美霞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名迁移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM19B01Q031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼎泰弘扬（北京）科技有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵彤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>田丽娜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地页开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话医生落地页开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM19701Q031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寰康方舟医疗救援项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈洪霞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>服务对接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂停</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S16208BX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰康健康管理公司合作项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李冉冉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据加密对接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>珊瑚重疾服务页面更新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端页面修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>英大团险健康管理服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS19C016B017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>岳志涛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>联通-信诺救援和健康项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS2061002Q063</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘念</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务对接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>《远盟救援》小程序</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>范文文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BJS2051005H019</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务对接（小程序）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰康健康管理公司合作项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李冉冉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据回传接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对接结束时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>华农健康管理增值服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>友邦2017版团险组合计划增值服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S16909BX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪希慧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置珊瑚激活</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS19316B017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵州国寿黔东南分公司重疾绿通卡增订业务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>程利军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS2061015B017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>国寿重庆电销快捷垫付重疾绿通项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆健康救援项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM19A01B031</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金晓可</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS2061005B017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>国寿贵州紫云快捷垫付重疾绿通项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS19110B017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京国寿重疾卡增订项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS202028B017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>国寿西藏快捷垫付重疾绿通项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘金芳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>程利军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务对接、API开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待产品上线</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>交付开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口交付、准备联调</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>安心健康管家公众号开发需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>友邦2017版团险组合计划增值服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S16909BX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪希慧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM18C05B031</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务对接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水滴保健康咨询增值服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务对接、集成页开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江国寿健康管理项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS204006B017</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈飞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>API开发、个性化配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安心公众号4个落地页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔美霞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安心公众号营养课落地页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖蓥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>落地页开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务对接、集成页开发、接口改造</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰人寿保险股份有限公司采购协议</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S15A12BX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>林小雁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据提取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增开发需求</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3347,8 +3423,8 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:C10"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3383,7 +3459,7 @@
         <v>212</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -3481,7 +3557,7 @@
         <v>43984</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G4" s="2">
         <f>H4+I4+J4+K4</f>
@@ -3496,7 +3572,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>194</v>
@@ -3511,7 +3587,7 @@
         <v>43997</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" ref="G5:G7" si="0">H5+I5+J5+K5</f>
@@ -3535,10 +3611,10 @@
         <v>200</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
@@ -3564,8 +3640,8 @@
       <c r="E7" s="9">
         <v>43983</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>239</v>
+      <c r="F7" s="11">
+        <v>44012</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
@@ -3607,16 +3683,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="E9" s="9">
         <v>43990</v>
@@ -3676,7 +3752,7 @@
         <v>43990</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
@@ -3715,10 +3791,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="E13" s="9">
         <v>43991</v>
@@ -3826,16 +3902,16 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="E17" s="9">
         <v>43993</v>
@@ -3889,13 +3965,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="E19" s="9">
         <v>43993</v>
@@ -3979,13 +4055,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>189</v>
@@ -4009,13 +4085,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>189</v>
@@ -4039,16 +4115,16 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E24" s="9">
         <v>44001</v>
@@ -4069,22 +4145,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E25" s="9">
         <v>44004</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="2"/>
@@ -4096,22 +4172,22 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E26" s="9">
         <v>44004</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="2"/>
@@ -4129,22 +4205,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="E27" s="9">
         <v>44004</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="2"/>
@@ -4156,22 +4232,22 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="E28" s="9">
         <v>44004</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="2"/>
@@ -4183,16 +4259,16 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="E29" s="9">
         <v>44005</v>
@@ -4213,10 +4289,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>188</v>
@@ -4243,13 +4319,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>189</v>
@@ -4273,13 +4349,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>189</v>
@@ -4310,10 +4386,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4342,7 +4418,7 @@
         <v>212</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -4362,7 +4438,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>208</v>
@@ -4373,11 +4449,11 @@
       <c r="E2" s="9">
         <v>43990</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>239</v>
+      <c r="F2" s="11">
+        <v>44035</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G11" si="0">H2+I2+J2+K2</f>
+        <f t="shared" ref="G2:G21" si="0">H2+I2+J2+K2</f>
         <v>2</v>
       </c>
       <c r="H2" s="3">
@@ -4386,7 +4462,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>194</v>
@@ -4395,7 +4471,7 @@
         <v>195</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E3" s="9">
         <v>43997</v>
@@ -4413,22 +4489,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="E4" s="9">
         <v>44004</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
@@ -4440,22 +4516,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>299</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E5" s="9">
         <v>44015</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
@@ -4470,22 +4546,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E6" s="11">
         <v>44018</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
@@ -4503,16 +4579,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="E7" s="11">
         <v>44015</v>
@@ -4536,13 +4612,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>309</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E8" s="11">
         <v>44020</v>
@@ -4560,13 +4636,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="E9" s="11">
         <v>44020</v>
@@ -4596,36 +4672,231 @@
         <v>207</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E10" s="11">
         <v>44025</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>294</v>
+      </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="E11" s="11">
         <v>44026</v>
       </c>
       <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" s="11">
+        <v>44029</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" s="11">
+        <v>44032</v>
+      </c>
+      <c r="F13" s="11">
+        <v>44032</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E14" s="11">
+        <v>44033</v>
+      </c>
+      <c r="F14" s="11">
+        <v>44034</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E15" s="11">
+        <v>44034</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" s="11">
+        <v>44034</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E17" s="11">
+        <v>44034</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18" s="11">
+        <v>44036</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="348">
   <si>
     <t>项目编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1322,6 +1322,46 @@
   </si>
   <si>
     <t>服务对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2071003B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行维科技健康救援服务项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范文文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安心营养课落地页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔美霞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地页开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS19A006B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平人寿2020版线上医生增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成页开发、接口调整</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4386,10 +4426,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4453,7 +4493,7 @@
         <v>44035</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G21" si="0">H2+I2+J2+K2</f>
+        <f t="shared" ref="G2:G22" si="0">H2+I2+J2+K2</f>
         <v>2</v>
       </c>
       <c r="H2" s="3">
@@ -4851,6 +4891,9 @@
       <c r="E17" s="11">
         <v>44034</v>
       </c>
+      <c r="F17" s="11">
+        <v>44040</v>
+      </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -4861,20 +4904,20 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E18" s="11">
         <v>44036</v>
       </c>
+      <c r="F18" s="11">
+        <v>44040</v>
+      </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -4884,19 +4927,82 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E19" s="11">
+        <v>44036</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>294</v>
+      </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="11">
+        <v>44040</v>
+      </c>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E21" s="11">
+        <v>44042</v>
+      </c>
       <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G22" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="03月" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="05月" sheetId="3" r:id="rId3"/>
     <sheet name="06月" sheetId="4" r:id="rId4"/>
     <sheet name="07月" sheetId="5" r:id="rId5"/>
+    <sheet name="08月" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="392">
   <si>
     <t>项目编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1362,6 +1363,182 @@
   </si>
   <si>
     <t>集成页开发、接口调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS202006B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海国寿重疾绿通增订项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增产品对接、页面开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2081001B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆税优项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地页开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微磁接口开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口交付联调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成页开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口交付联调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2071003B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行维科技健康救援服务项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范文文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平人寿2020版线上医生增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自助挂号实时备案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古国寿家庭医生卡项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据接口开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申婷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔笛APP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘金芳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳志涛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻松筹电话医生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李小慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩季AI医生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水滴保健康咨询增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM18C05B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成页开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中荷人寿健康服务项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2061020B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华重疾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安心线上对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>度小满增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华人寿健康救援项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S18102BY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李小慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案对接方式调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务页面开发*5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1439,7 +1616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1469,6 +1646,12 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4426,10 +4609,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4493,7 +4676,7 @@
         <v>44035</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G22" si="0">H2+I2+J2+K2</f>
+        <f t="shared" ref="G2:G21" si="0">H2+I2+J2+K2</f>
         <v>2</v>
       </c>
       <c r="H2" s="3">
@@ -5001,10 +5184,460 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G22" s="3">
-        <f t="shared" si="0"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="18" style="12" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="13">
+        <v>44046</v>
+      </c>
+      <c r="F2" s="13">
+        <v>44048</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G8" si="0">H2+I2+J2+K2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="13">
+        <v>44046</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="11">
+        <v>44047</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E5" s="11">
+        <v>44042</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" s="13">
+        <v>44054</v>
+      </c>
+      <c r="F6" s="13">
+        <v>44062</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="E7" s="13">
+        <v>44040</v>
+      </c>
+      <c r="F7" s="13">
+        <v>44049</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="E8" s="13">
+        <v>44054</v>
+      </c>
+      <c r="F8" s="13">
+        <v>44068</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="E9" s="13">
+        <v>44054</v>
+      </c>
+      <c r="F9" s="13">
+        <v>44061</v>
+      </c>
+      <c r="G9" s="12">
+        <f>H9+N9+J9+K9</f>
+        <v>5</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E10" s="13">
+        <v>44060</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" ref="G10:G15" si="1">H10+N10+J10+K10</f>
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="E11" s="13">
+        <v>44064</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H11" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="E12" s="13">
+        <v>44070</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="E13" s="13">
+        <v>44070</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="E14" s="13">
+        <v>44067</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="E15" s="13">
+        <v>44070</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="E16" s="13">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="E17" s="13">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="E18" s="13">
+        <v>44071</v>
       </c>
     </row>
   </sheetData>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="03月" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="06月" sheetId="4" r:id="rId4"/>
     <sheet name="07月" sheetId="5" r:id="rId5"/>
     <sheet name="08月" sheetId="6" r:id="rId6"/>
+    <sheet name="09月" sheetId="7" r:id="rId7"/>
+    <sheet name="10月" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="512">
   <si>
     <t>项目编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1478,10 +1480,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>感恩季AI医生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>水滴保健康咨询增值服务</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1506,10 +1504,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>安心线上对接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>汪希慧</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1518,10 +1512,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>度小满增值服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>新华人寿健康救援项目</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1539,6 +1529,498 @@
   </si>
   <si>
     <t>服务页面开发*5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2061002Q031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈略数据增值服务项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘震</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案接口对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案接口对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S18102BY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅振兴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2081024B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>度小满健康管理增值服务项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM19706B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安心百万医疗2019增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3C5集成页开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆家嘴国泰健康管理增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2081017B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口交付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发需求文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案接口完成，服务页面开发中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口交付联调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>——</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>——</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月2日（没有联调）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未评估</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求确认时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2081025B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州VIP客户项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴跃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2081001Q016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南智麦健康咨询项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口交付、联调中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禾一海诚健康卡项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2091004B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅振兴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李小慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成页开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星益健康医疗咨询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2071002H016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳志涛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成页开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2041002B063</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华健康2020 健康救援卡类服务项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李小慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务页开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻松筹健康医疗补充服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2051006B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2091008H017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖哇科技健康服务项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老司机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李小慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华加急</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成页开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东国寿大健康</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2091009B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小水花健康管理增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳志涛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售沟通协议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM18C05B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长险单独对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云住养—健康救援代理项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM19C01D031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英大客服部健康管理服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS204002B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水滴保健康咨询增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM18C05B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>——</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨为感</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案接口调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企鹅家庭医生服务项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2091006031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增服务对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改注册协议弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI、免责声明更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM19706B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安心百万医疗2019增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据回传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S15903BX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国联人寿健康增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李冉冉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增对接产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2071001B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕赵财健康管理服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>于广静</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1581,12 +2063,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1616,7 +2110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1652,6 +2146,24 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2989,7 +3501,7 @@
         <v>67</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" ref="E16" si="1">F16+G16+H16+I16</f>
+        <f>F16+G16+H16+I16</f>
         <v>1</v>
       </c>
       <c r="F16" s="5">
@@ -3015,7 +3527,7 @@
         <v>67</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ref="E17:E19" si="2">F17+G17+H17+I17</f>
+        <f>F17+G17+H17+I17</f>
         <v>1</v>
       </c>
       <c r="F17" s="5">
@@ -3040,7 +3552,7 @@
         <v>117</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="2"/>
+        <f>F18+G18+H18+I18</f>
         <v>0.5</v>
       </c>
       <c r="F18" s="5">
@@ -3061,7 +3573,7 @@
         <v>67</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="2"/>
+        <f>F19+G19+H19+I19</f>
         <v>1</v>
       </c>
       <c r="F19" s="5">
@@ -3137,7 +3649,7 @@
         <v>124</v>
       </c>
       <c r="E2">
-        <f>F2+G2+H2+I2</f>
+        <f t="shared" ref="E2:E22" si="0">F2+G2+H2+I2</f>
         <v>5</v>
       </c>
       <c r="F2">
@@ -3164,7 +3676,7 @@
         <v>128</v>
       </c>
       <c r="E3" s="2">
-        <f>F3+G3+H3+I3</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F3">
@@ -3188,7 +3700,7 @@
         <v>132</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E5" si="0">F4+G4+H4+I4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4">
@@ -3233,7 +3745,7 @@
         <v>140</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E6:E8" si="1">F6+G6+H6+I6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6" s="2">
@@ -3258,7 +3770,7 @@
         <v>140</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F7" s="2">
@@ -3283,7 +3795,7 @@
         <v>117</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F8">
@@ -3310,7 +3822,7 @@
         <v>128</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9" si="2">F9+G9+H9+I9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F9" s="2">
@@ -3335,7 +3847,7 @@
         <v>128</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:E11" si="3">F10+G10+H10+I10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F10" s="2">
@@ -3360,7 +3872,7 @@
         <v>151</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="F11">
@@ -3381,7 +3893,7 @@
         <v>78</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ref="E12:E16" si="4">F12+G12+H12+I12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F12" s="2">
@@ -3406,7 +3918,7 @@
         <v>158</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F13" s="2">
@@ -3434,7 +3946,7 @@
         <v>159</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F14">
@@ -3455,7 +3967,7 @@
         <v>164</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F15">
@@ -3479,7 +3991,7 @@
         <v>169</v>
       </c>
       <c r="E16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F16">
@@ -3503,7 +4015,7 @@
         <v>62</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ref="E17:E20" si="5">F17+G17+H17+I17</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F17" s="2">
@@ -3529,7 +4041,7 @@
         <v>176</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="F18">
@@ -3550,7 +4062,7 @@
         <v>178</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="F19">
@@ -3574,7 +4086,7 @@
         <v>169</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F20">
@@ -3598,7 +4110,7 @@
         <v>62</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" ref="E21:E22" si="6">F21+G21+H21+I21</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F21" s="2">
@@ -3623,7 +4135,7 @@
         <v>62</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F22" s="2">
@@ -3720,7 +4232,7 @@
         <v>43991</v>
       </c>
       <c r="G2" s="2">
-        <f>H2+I2+J2+K2</f>
+        <f t="shared" ref="G2:G9" si="0">H2+I2+J2+K2</f>
         <v>4.5</v>
       </c>
       <c r="H2" s="3">
@@ -3753,7 +4265,7 @@
         <v>43986</v>
       </c>
       <c r="G3" s="2">
-        <f>H3+I3+J3+K3</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H3" s="3">
@@ -3783,7 +4295,7 @@
         <v>240</v>
       </c>
       <c r="G4" s="2">
-        <f>H4+I4+J4+K4</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="H4" s="3">
@@ -3813,7 +4325,7 @@
         <v>293</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:G7" si="0">H5+I5+J5+K5</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H5" s="3">
@@ -3894,7 +4406,7 @@
         <v>43986</v>
       </c>
       <c r="G8" s="2">
-        <f>H8+I8+J8+K8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H8" s="3">
@@ -3924,7 +4436,7 @@
         <v>43998</v>
       </c>
       <c r="G9" s="2">
-        <f>H9+I9+J9+K9</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H9" s="3">
@@ -4530,7 +5042,7 @@
         <v>43999</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" ref="G30" si="3">H30+I30+J30+K30</f>
+        <f>H30+I30+J30+K30</f>
         <v>1</v>
       </c>
       <c r="H30" s="3">
@@ -4560,7 +5072,7 @@
         <v>44011</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" ref="G31:G32" si="4">H31+I31+J31+K31</f>
+        <f>H31+I31+J31+K31</f>
         <v>1</v>
       </c>
       <c r="H31" s="3">
@@ -4590,7 +5102,7 @@
         <v>44011</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="4"/>
+        <f>H32+I32+J32+K32</f>
         <v>1</v>
       </c>
       <c r="H32" s="3">
@@ -4612,7 +5124,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="A15" sqref="A15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5193,10 +5705,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5205,11 +5717,14 @@
     <col min="2" max="2" width="15.125" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="18" style="12" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="12"/>
+    <col min="5" max="5" width="18" style="12" customWidth="1"/>
+    <col min="6" max="6" width="29.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="12" customWidth="1"/>
+    <col min="8" max="12" width="18" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -5226,25 +5741,28 @@
         <v>212</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>414</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>353</v>
       </c>
@@ -5260,18 +5778,19 @@
       <c r="F2" s="13">
         <v>44048</v>
       </c>
-      <c r="G2" s="3">
-        <f t="shared" ref="G2:G8" si="0">H2+I2+J2+K2</f>
-        <v>1</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0.5</v>
+      <c r="G2" s="13"/>
+      <c r="H2" s="3">
+        <f t="shared" ref="H2:H8" si="0">I2+J2+K2+L2</f>
+        <v>1</v>
       </c>
       <c r="I2" s="12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J2" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>349</v>
       </c>
@@ -5290,15 +5809,15 @@
       <c r="F3" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="G3" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H3" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>335</v>
       </c>
@@ -5317,15 +5836,15 @@
       <c r="F4" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="G4" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="H4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>94</v>
       </c>
@@ -5344,15 +5863,15 @@
       <c r="F5" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>352</v>
       </c>
@@ -5371,18 +5890,19 @@
       <c r="F6" s="13">
         <v>44062</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="13"/>
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="H6" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="12">
+      <c r="I6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>360</v>
       </c>
@@ -5401,21 +5921,22 @@
       <c r="F7" s="13">
         <v>44049</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="13"/>
+      <c r="H7" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="J7" s="12">
+      <c r="I7" s="12">
         <v>1</v>
       </c>
       <c r="K7" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>363</v>
       </c>
@@ -5434,18 +5955,19 @@
       <c r="F8" s="13">
         <v>44068</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="13"/>
+      <c r="H8" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="J8" s="12">
+      <c r="I8" s="12">
+        <v>1</v>
+      </c>
+      <c r="K8" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>365</v>
       </c>
@@ -5464,18 +5986,19 @@
       <c r="F9" s="13">
         <v>44061</v>
       </c>
-      <c r="G9" s="12">
-        <f>H9+N9+J9+K9</f>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12">
+        <f>I9+O9+K9+L9</f>
         <v>5</v>
       </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12">
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>368</v>
       </c>
@@ -5488,20 +6011,26 @@
       <c r="E10" s="13">
         <v>44060</v>
       </c>
-      <c r="G10" s="12">
-        <f t="shared" ref="G10:G15" si="1">H10+N10+J10+K10</f>
-        <v>0.5</v>
+      <c r="F10" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>404</v>
       </c>
       <c r="H10" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H10:H19" si="1">I10+O10+K10+L10</f>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>380</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>381</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>371</v>
@@ -5512,15 +6041,21 @@
       <c r="E11" s="13">
         <v>44064</v>
       </c>
-      <c r="G11" s="12">
+      <c r="F11" s="13">
+        <v>44074</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="H11" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H11" s="12">
+      <c r="I11" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>372</v>
       </c>
@@ -5530,14 +6065,26 @@
       <c r="E12" s="13">
         <v>44070</v>
       </c>
-      <c r="G12" s="12">
+      <c r="F12" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H12" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>376</v>
+        <v>401</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>402</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>374</v>
@@ -5548,96 +6095,1000 @@
       <c r="E13" s="13">
         <v>44070</v>
       </c>
-      <c r="G13" s="12">
+      <c r="F13" s="13">
+        <v>44081</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="H13" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>377</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>378</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E14" s="13">
         <v>44067</v>
       </c>
-      <c r="G14" s="12">
+      <c r="F14" s="13">
+        <v>44076</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="H14" s="12">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="H14" s="12">
+      <c r="I14" s="12">
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>394</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="E15" s="13">
         <v>44070</v>
       </c>
-      <c r="G15" s="12">
+      <c r="F15" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H15" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>383</v>
+        <v>399</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>398</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E16" s="13">
         <v>44070</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="13">
+        <v>44081</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12">
+        <v>3</v>
+      </c>
+      <c r="K16" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>386</v>
+        <v>397</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>396</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="E17" s="13">
         <v>44069</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>387</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>390</v>
       </c>
       <c r="E18" s="13">
         <v>44071</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="E19" s="13">
+        <v>44074</v>
+      </c>
+      <c r="F19" s="13">
+        <v>44075</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="22.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="35.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="22.5" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="F2" s="15">
+        <v>44070</v>
+      </c>
+      <c r="G2" s="15">
+        <v>44082</v>
+      </c>
+      <c r="H2" s="15">
+        <v>44097</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="J2" s="14">
+        <f t="shared" ref="J2:J9" si="0">K2+L2+M2+N2</f>
+        <v>11</v>
+      </c>
+      <c r="K2" s="14">
+        <v>1</v>
+      </c>
+      <c r="L2" s="14">
+        <v>4</v>
+      </c>
+      <c r="M2" s="14">
+        <v>5</v>
+      </c>
+      <c r="N2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="F3" s="15">
+        <v>44070</v>
+      </c>
+      <c r="G3" s="15">
+        <v>44082</v>
+      </c>
+      <c r="H3" s="15">
+        <v>44088</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="J3" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K3" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="F4" s="15">
+        <v>44075</v>
+      </c>
+      <c r="G4" s="15">
+        <v>44081</v>
+      </c>
+      <c r="H4" s="15">
+        <v>44089</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="K4" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="M4" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="F5" s="15">
+        <v>44076</v>
+      </c>
+      <c r="G5" s="15">
+        <v>44078</v>
+      </c>
+      <c r="H5" s="15">
+        <v>44082</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="14">
+        <v>3</v>
+      </c>
+      <c r="N5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F6" s="15">
+        <v>44078</v>
+      </c>
+      <c r="G6" s="15">
+        <v>44081</v>
+      </c>
+      <c r="H6" s="15">
+        <v>44084</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="14">
+        <v>2</v>
+      </c>
+      <c r="N6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F7" s="15">
+        <v>44083</v>
+      </c>
+      <c r="G7" s="15">
+        <v>44083</v>
+      </c>
+      <c r="H7" s="15">
+        <v>44090</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K7" s="19">
+        <v>2</v>
+      </c>
+      <c r="L7" s="14">
+        <v>2</v>
+      </c>
+      <c r="M7" s="14">
+        <v>2</v>
+      </c>
+      <c r="N7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="F8" s="16">
+        <v>44085</v>
+      </c>
+      <c r="G8" s="16">
+        <v>44089</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="F9" s="15">
+        <v>44089</v>
+      </c>
+      <c r="G9" s="15">
+        <v>44092</v>
+      </c>
+      <c r="H9" s="15">
+        <v>44098</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K9" s="14">
+        <v>2</v>
+      </c>
+      <c r="L9" s="14">
+        <v>3</v>
+      </c>
+      <c r="M9" s="14">
+        <v>3</v>
+      </c>
+      <c r="N9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F10" s="11">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="12.75" style="3" customWidth="1"/>
+    <col min="12" max="12" width="20.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="F2" s="15">
+        <v>44104</v>
+      </c>
+      <c r="G2" s="15">
+        <v>44118</v>
+      </c>
+      <c r="H2" s="15">
+        <v>44120</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F3" s="11">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="F4" s="16">
+        <v>44117</v>
+      </c>
+      <c r="G4" s="16">
+        <v>44117</v>
+      </c>
+      <c r="H4" s="16">
+        <v>44126</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F5" s="11">
+        <v>44117</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="F6" s="15">
+        <v>44119</v>
+      </c>
+      <c r="G6" s="15">
+        <v>44119</v>
+      </c>
+      <c r="H6" s="15">
+        <v>44119</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="F7" s="15">
+        <v>44119</v>
+      </c>
+      <c r="G7" s="15">
+        <v>44119</v>
+      </c>
+      <c r="H7" s="15">
+        <v>44130</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="F8" s="15">
+        <v>44119</v>
+      </c>
+      <c r="G8" s="15">
+        <v>44119</v>
+      </c>
+      <c r="H8" s="15">
+        <v>44119</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="F9" s="15">
+        <v>44120</v>
+      </c>
+      <c r="G9" s="15">
+        <v>44120</v>
+      </c>
+      <c r="H9" s="15">
+        <v>44125</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="F10" s="15">
+        <v>44120</v>
+      </c>
+      <c r="G10" s="15">
+        <v>44120</v>
+      </c>
+      <c r="H10" s="15">
+        <v>44131</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F11" s="11">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="F12" s="16">
+        <v>44126</v>
+      </c>
+      <c r="G12" s="16">
+        <v>44126</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="F13" s="16">
+        <v>44131</v>
+      </c>
+      <c r="G13" s="16">
+        <v>44132</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="535">
   <si>
     <t>项目编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2016,7 +2016,99 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>开发中</t>
+    <t>COM19104B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Picc健康-Picc寿总公司传统服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王明辉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心理咨询服务对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2091013Q017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云医康心电保项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅振兴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM19B01Q031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼎泰弘扬健康项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵彤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS20B1001B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>药店健康管理增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5124,7 +5216,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C15"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6727,10 +6819,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6819,40 +6911,49 @@
         <v>485</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="15">
         <v>44104</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="G3" s="15">
+        <v>44147</v>
+      </c>
+      <c r="H3" s="15">
+        <v>44154</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>44117</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>44117</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>44126</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="14" t="s">
         <v>466</v>
       </c>
     </row>
@@ -7038,57 +7139,175 @@
         <v>44124</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>44126</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>44126</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17" t="s">
+      <c r="H12" s="15">
+        <v>44137</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="F13" s="15">
+        <v>44131</v>
+      </c>
+      <c r="G13" s="15">
+        <v>44132</v>
+      </c>
+      <c r="H13" s="15">
+        <v>44139</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>507</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>508</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>509</v>
-      </c>
-      <c r="F13" s="16">
-        <v>44131</v>
-      </c>
-      <c r="G13" s="16">
-        <v>44132</v>
-      </c>
-      <c r="I13" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>510</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="F14" s="15">
+        <v>44138</v>
+      </c>
+      <c r="G14" s="15">
+        <v>44138</v>
+      </c>
+      <c r="H14" s="15">
+        <v>44141</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="F15" s="15">
+        <v>44139</v>
+      </c>
+      <c r="G15" s="15">
+        <v>44143</v>
+      </c>
+      <c r="H15" s="15">
+        <v>44144</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="F16" s="15">
+        <v>44140</v>
+      </c>
+      <c r="G16" s="15">
+        <v>44144</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="F17" s="16">
+        <v>44152</v>
+      </c>
+      <c r="G17" s="16">
+        <v>44154</v>
+      </c>
+      <c r="H17" s="16">
+        <v>44159</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
